--- a/Linux/DeviceDrivers/SampleCode(important)/2.如何实现一个简单的字符设备驱动模块.xlsx
+++ b/Linux/DeviceDrivers/SampleCode(important)/2.如何实现一个简单的字符设备驱动模块.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFDC962-05BC-4593-BA02-176AF996AEAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -170,291 +171,292 @@
     <t>#include &lt;linux/cdev.h&gt;     /*  cdev_alloc()  */</t>
   </si>
   <si>
+    <t>#include &lt;linux/device.h&gt;   /* struct device, struct class */</t>
+  </si>
+  <si>
+    <t>#define DEV_NAME ("ylmcdev")</t>
+  </si>
+  <si>
+    <t>struct ylmcdev_buf {</t>
+  </si>
+  <si>
+    <t>char buf[8];</t>
+  </si>
+  <si>
+    <t>size_t len;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>static struct cdev *ylmcdevp = NULL;</t>
+  </si>
+  <si>
+    <t>static struct class *ylmcdev_classp = NULL;</t>
+  </si>
+  <si>
+    <t>static dev_t ylmcdev_no = 0;</t>
+  </si>
+  <si>
+    <t>struct ylmcdev_buf ylm_data;</t>
+  </si>
+  <si>
+    <t>static int ylmcdev_open(struct inode *inode, struct file *file)</t>
+  </si>
+  <si>
+    <t>unsigned int flags;</t>
+  </si>
+  <si>
+    <t>file-&gt;private_data = &amp;ylm_data;</t>
+  </si>
+  <si>
+    <t>flags = file-&gt;f_flags &amp; O_ACCMODE;</t>
+  </si>
+  <si>
+    <t>switch(flags) {</t>
+  </si>
+  <si>
+    <t>case O_RDONLY:</t>
+  </si>
+  <si>
+    <t>ylm_data.len = 0;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case O_WRONLY:</t>
+  </si>
+  <si>
+    <t>memset(ylm_data.buf, 0, sizeof(ylm_data.buf));</t>
+  </si>
+  <si>
+    <t>case O_RDWR:</t>
+  </si>
+  <si>
+    <t>memset(&amp;ylm_data, 0, sizeof(ylm_data));</t>
+  </si>
+  <si>
+    <t>default:</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "open \n");</t>
+  </si>
+  <si>
+    <t>return 0;</t>
+  </si>
+  <si>
+    <t>static int ylmcdev_release(struct inode *inode, struct file *file)</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "closed \n");</t>
+  </si>
+  <si>
+    <t>static ssize_t ylmcdev_read(struct file *filp, char *buf, size_t len, loff_t *off)</t>
+  </si>
+  <si>
+    <t>int left_len, read_len;</t>
+  </si>
+  <si>
+    <t>struct ylmcdev_buf *data = filp-&gt;private_data;</t>
+  </si>
+  <si>
+    <t>left_len = 8 - data-&gt;len;</t>
+  </si>
+  <si>
+    <t>read_len = left_len &gt; len ? len : left_len;</t>
+  </si>
+  <si>
+    <t>if (copy_to_user(buf, data, read_len)) {</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "copy_to_user NG\n");</t>
+  </si>
+  <si>
+    <t>return -EFAULT;</t>
+  </si>
+  <si>
+    <t>data-&gt;len += read_len;</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "read ylmcdev OK\n");</t>
+  </si>
+  <si>
+    <t>return read_len;</t>
+  </si>
+  <si>
+    <t>static ssize_t ylmcdev_write(struct file *filp, const char *buf, size_t len, loff_t *off)</t>
+  </si>
+  <si>
+    <t>int write_len;</t>
+  </si>
+  <si>
+    <t>write_len = 7 &gt; len ? len : 7;</t>
+  </si>
+  <si>
+    <t>if (copy_from_user(data-&gt;buf, buf, write_len)) {</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "copy_from_user NG\n");</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "write ylmcdev OK\n");</t>
+  </si>
+  <si>
+    <t>return write_len;</t>
+  </si>
+  <si>
+    <t>static struct file_operations ylmcdev_fops = {</t>
+  </si>
+  <si>
+    <t>.owner = THIS_MODULE,</t>
+  </si>
+  <si>
+    <t>.write = ylmcdev_write,</t>
+  </si>
+  <si>
+    <t>.read = ylmcdev_read,</t>
+  </si>
+  <si>
+    <t>.open = ylmcdev_open,</t>
+  </si>
+  <si>
+    <t>.release = ylmcdev_release,</t>
+  </si>
+  <si>
+    <t>static int __init ylmcdev_init(void)</t>
+  </si>
+  <si>
+    <t>int ret;</t>
+  </si>
+  <si>
+    <t>ret = alloc_chrdev_region(&amp;ylmcdev_no, 0, 1, DEV_NAME);</t>
+  </si>
+  <si>
+    <t>if( ret &lt; 0 ) {</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "ENODEV\n");</t>
+  </si>
+  <si>
+    <t>return -ENODEV;</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "%s driver use major %d\n", DEV_NAME, MAJOR(ylmcdev_no));</t>
+  </si>
+  <si>
+    <t>if (NULL == (ylmcdevp = cdev_alloc())) {</t>
+  </si>
+  <si>
+    <t>printk(KERN_ERR "%s driver can't alloc for the cdev.\n", DEV_NAME);</t>
+  </si>
+  <si>
+    <t>unregister_chrdev_region(ylmcdev_no, 1);</t>
+  </si>
+  <si>
+    <t>return -ENOMEM;</t>
+  </si>
+  <si>
+    <t>ylmcdevp-&gt;owner = THIS_MODULE;</t>
+  </si>
+  <si>
+    <t>ylmcdevp-&gt;ops = &amp;ylmcdev_fops;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ret = cdev_add(ylmcdevp, ylmcdev_no, 1);</t>
+  </si>
+  <si>
+    <t>if (0 != ret) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printk(KERN_INFO "%s driver can't reigster cdev: result=%d\n", DEV_NAME, ret); </t>
+  </si>
+  <si>
+    <t>goto ERROR;</t>
+  </si>
+  <si>
+    <t>ylmcdev_classp = class_create(THIS_MODULE, DEV_NAME);</t>
+  </si>
+  <si>
+    <t>device_create(ylmcdev_classp, NULL, ylmcdev_no, NULL, DEV_NAME);</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "%s driver[major=%d]  installed successfully!\n", DEV_NAME, MAJOR(ylmcdev_no));</t>
+  </si>
+  <si>
+    <t>ERROR:</t>
+  </si>
+  <si>
+    <t>printk(KERN_ERR "%s driver installed failure.\n", DEV_NAME);</t>
+  </si>
+  <si>
+    <t>cdev_del(ylmcdevp);</t>
+  </si>
+  <si>
+    <t>return ret;</t>
+  </si>
+  <si>
+    <t>static void __exit ylmcdev_exit(void)</t>
+  </si>
+  <si>
+    <t>device_destroy(ylmcdev_classp, ylmcdev_no);</t>
+  </si>
+  <si>
+    <t>class_destroy(ylmcdev_classp);</t>
+  </si>
+  <si>
+    <t>printk(KERN_INFO "%s driver removed!\n", DEV_NAME);</t>
+  </si>
+  <si>
+    <t>return ;</t>
+  </si>
+  <si>
+    <t>module_init(ylmcdev_init);</t>
+  </si>
+  <si>
+    <t>module_exit(ylmcdev_exit);</t>
+  </si>
+  <si>
+    <t>obj-$(CONFIG_YLM_CDEV) += ylmcdev.o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj-$(CONFIG_YLM_CDEV) += ylm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config YLM_CDEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tristate 'YLM Char Device Driver'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylm char device driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># YLM Char Device Driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIG_YLM_CDEV=m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#include &lt;asm/uaccess.h&gt;    /* copy_to_user copy_from_user */</t>
-  </si>
-  <si>
-    <t>#include &lt;linux/device.h&gt;   /* struct device, struct class */</t>
-  </si>
-  <si>
-    <t>#define DEV_NAME ("ylmcdev")</t>
-  </si>
-  <si>
-    <t>struct ylmcdev_buf {</t>
-  </si>
-  <si>
-    <t>char buf[8];</t>
-  </si>
-  <si>
-    <t>size_t len;</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>static struct cdev *ylmcdevp = NULL;</t>
-  </si>
-  <si>
-    <t>static struct class *ylmcdev_classp = NULL;</t>
-  </si>
-  <si>
-    <t>static dev_t ylmcdev_no = 0;</t>
-  </si>
-  <si>
-    <t>struct ylmcdev_buf ylm_data;</t>
-  </si>
-  <si>
-    <t>static int ylmcdev_open(struct inode *inode, struct file *file)</t>
-  </si>
-  <si>
-    <t>unsigned int flags;</t>
-  </si>
-  <si>
-    <t>file-&gt;private_data = &amp;ylm_data;</t>
-  </si>
-  <si>
-    <t>flags = file-&gt;f_flags &amp; O_ACCMODE;</t>
-  </si>
-  <si>
-    <t>switch(flags) {</t>
-  </si>
-  <si>
-    <t>case O_RDONLY:</t>
-  </si>
-  <si>
-    <t>ylm_data.len = 0;</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t>case O_WRONLY:</t>
-  </si>
-  <si>
-    <t>memset(ylm_data.buf, 0, sizeof(ylm_data.buf));</t>
-  </si>
-  <si>
-    <t>case O_RDWR:</t>
-  </si>
-  <si>
-    <t>memset(&amp;ylm_data, 0, sizeof(ylm_data));</t>
-  </si>
-  <si>
-    <t>default:</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "open \n");</t>
-  </si>
-  <si>
-    <t>return 0;</t>
-  </si>
-  <si>
-    <t>static int ylmcdev_release(struct inode *inode, struct file *file)</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "closed \n");</t>
-  </si>
-  <si>
-    <t>static ssize_t ylmcdev_read(struct file *filp, char *buf, size_t len, loff_t *off)</t>
-  </si>
-  <si>
-    <t>int left_len, read_len;</t>
-  </si>
-  <si>
-    <t>struct ylmcdev_buf *data = filp-&gt;private_data;</t>
-  </si>
-  <si>
-    <t>left_len = 8 - data-&gt;len;</t>
-  </si>
-  <si>
-    <t>read_len = left_len &gt; len ? len : left_len;</t>
-  </si>
-  <si>
-    <t>if (copy_to_user(buf, data, read_len)) {</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "copy_to_user NG\n");</t>
-  </si>
-  <si>
-    <t>return -EFAULT;</t>
-  </si>
-  <si>
-    <t>data-&gt;len += read_len;</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "read ylmcdev OK\n");</t>
-  </si>
-  <si>
-    <t>return read_len;</t>
-  </si>
-  <si>
-    <t>static ssize_t ylmcdev_write(struct file *filp, const char *buf, size_t len, loff_t *off)</t>
-  </si>
-  <si>
-    <t>int write_len;</t>
-  </si>
-  <si>
-    <t>write_len = 7 &gt; len ? len : 7;</t>
-  </si>
-  <si>
-    <t>if (copy_from_user(data-&gt;buf, buf, write_len)) {</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "copy_from_user NG\n");</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "write ylmcdev OK\n");</t>
-  </si>
-  <si>
-    <t>return write_len;</t>
-  </si>
-  <si>
-    <t>static struct file_operations ylmcdev_fops = {</t>
-  </si>
-  <si>
-    <t>.owner = THIS_MODULE,</t>
-  </si>
-  <si>
-    <t>.write = ylmcdev_write,</t>
-  </si>
-  <si>
-    <t>.read = ylmcdev_read,</t>
-  </si>
-  <si>
-    <t>.open = ylmcdev_open,</t>
-  </si>
-  <si>
-    <t>.release = ylmcdev_release,</t>
-  </si>
-  <si>
-    <t>static int __init ylmcdev_init(void)</t>
-  </si>
-  <si>
-    <t>int ret;</t>
-  </si>
-  <si>
-    <t>ret = alloc_chrdev_region(&amp;ylmcdev_no, 0, 1, DEV_NAME);</t>
-  </si>
-  <si>
-    <t>if( ret &lt; 0 ) {</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "ENODEV\n");</t>
-  </si>
-  <si>
-    <t>return -ENODEV;</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "%s driver use major %d\n", DEV_NAME, MAJOR(ylmcdev_no));</t>
-  </si>
-  <si>
-    <t>if (NULL == (ylmcdevp = cdev_alloc())) {</t>
-  </si>
-  <si>
-    <t>printk(KERN_ERR "%s driver can't alloc for the cdev.\n", DEV_NAME);</t>
-  </si>
-  <si>
-    <t>unregister_chrdev_region(ylmcdev_no, 1);</t>
-  </si>
-  <si>
-    <t>return -ENOMEM;</t>
-  </si>
-  <si>
-    <t>ylmcdevp-&gt;owner = THIS_MODULE;</t>
-  </si>
-  <si>
-    <t>ylmcdevp-&gt;ops = &amp;ylmcdev_fops;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ret = cdev_add(ylmcdevp, ylmcdev_no, 1);</t>
-  </si>
-  <si>
-    <t>if (0 != ret) {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printk(KERN_INFO "%s driver can't reigster cdev: result=%d\n", DEV_NAME, ret); </t>
-  </si>
-  <si>
-    <t>goto ERROR;</t>
-  </si>
-  <si>
-    <t>ylmcdev_classp = class_create(THIS_MODULE, DEV_NAME);</t>
-  </si>
-  <si>
-    <t>device_create(ylmcdev_classp, NULL, ylmcdev_no, NULL, DEV_NAME);</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "%s driver[major=%d]  installed successfully!\n", DEV_NAME, MAJOR(ylmcdev_no));</t>
-  </si>
-  <si>
-    <t>ERROR:</t>
-  </si>
-  <si>
-    <t>printk(KERN_ERR "%s driver installed failure.\n", DEV_NAME);</t>
-  </si>
-  <si>
-    <t>cdev_del(ylmcdevp);</t>
-  </si>
-  <si>
-    <t>return ret;</t>
-  </si>
-  <si>
-    <t>static void __exit ylmcdev_exit(void)</t>
-  </si>
-  <si>
-    <t>device_destroy(ylmcdev_classp, ylmcdev_no);</t>
-  </si>
-  <si>
-    <t>class_destroy(ylmcdev_classp);</t>
-  </si>
-  <si>
-    <t>printk(KERN_INFO "%s driver removed!\n", DEV_NAME);</t>
-  </si>
-  <si>
-    <t>return ;</t>
-  </si>
-  <si>
-    <t>module_init(ylmcdev_init);</t>
-  </si>
-  <si>
-    <t>module_exit(ylmcdev_exit);</t>
-  </si>
-  <si>
-    <t>obj-$(CONFIG_YLM_CDEV) += ylmcdev.o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj-$(CONFIG_YLM_CDEV) += ylm/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config YLM_CDEV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tristate 'YLM Char Device Driver'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylm char device driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># YLM Char Device Driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONFIG_YLM_CDEV=m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,11 +519,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,9 +605,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,6 +657,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,94 +850,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
@@ -904,69 +950,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -979,614 +1025,614 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="AR137" sqref="AR137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="D32" s="1" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="D33" s="1" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="C34" s="1" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="D35" s="1" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="D36" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="1" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="D38" s="1" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="D39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="C40" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="C44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="C56" s="1" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
-      <c r="C58" s="1" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="C59" s="1" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="D61" s="1" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="D62" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="C67" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
-      <c r="C73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="C75" s="1" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
-      <c r="C76" s="1" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
-      <c r="D77" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="C82" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="C86" s="1" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
-      <c r="C88" s="1" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
-      <c r="C90" s="1" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="1" t="s">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="1" t="s">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="3:4">
-      <c r="D99" s="1" t="s">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="3:4">
-      <c r="D100" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="1" t="s">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="3:4">
-      <c r="D106" s="1" t="s">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="3:4">
-      <c r="D107" s="1" t="s">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="3:4">
-      <c r="D108" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="1" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
-      <c r="C114" s="1" t="s">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
-      <c r="C115" s="1" t="s">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
-      <c r="D116" s="1" t="s">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
-      <c r="D117" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C118" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
-      <c r="C121" s="1" t="s">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
-      <c r="C123" s="1" t="s">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
-      <c r="C125" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4">
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="2:4">
-      <c r="C128" s="1" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
-      <c r="C129" s="1" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
-      <c r="C130" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="C131" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C136" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C137" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
-      <c r="C138" s="1" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
-      <c r="C140" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="C141" s="1" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="C142" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>22</v>
       </c>
@@ -1598,36 +1644,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1637,21 +1683,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1661,19 +1707,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1685,21 +1731,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1709,36 +1755,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
